--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_16.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79196.3552838584</v>
+        <v>79196.35528385847</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13008656.98025113</v>
+        <v>13008656.98025114</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="C11" t="n">
-        <v>66.89487755631824</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="G11" t="n">
-        <v>75.9478628023595</v>
+        <v>66.89487755631815</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.469579910408529</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="T12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="X12" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.89487755631825</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="T13" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="U13" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="E14" t="n">
-        <v>15.83348434264527</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="F14" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="G14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.469579910408529</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>66.89487755631815</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="V16" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.997683326253409</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.57890512775691</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5043612663704</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3166361924284</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>160.1737999618753</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.36628280022705</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>104.7614958137944</v>
       </c>
       <c r="H18" t="n">
-        <v>58.84898613940983</v>
+        <v>58.84898613940982</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.38747303192761</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.0780075886141</v>
       </c>
       <c r="U18" t="n">
-        <v>151.1773662359813</v>
+        <v>83.48683167929791</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>178.979940758551</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>91.22411098250829</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.6064588068799</v>
@@ -2022,7 +2022,7 @@
         <v>139.4744994336728</v>
       </c>
       <c r="I19" t="n">
-        <v>85.9690853967128</v>
+        <v>85.96908539671277</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.74103975143258</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0026031993279</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9171789780553</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.475368382889</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.6206246334138</v>
       </c>
       <c r="I20" t="n">
-        <v>1.997683326253394</v>
+        <v>1.997683326253295</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.57890512775685</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.690169957650824</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3166361924284</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.6136181832671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.38747303192761</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>41.26376781376186</v>
       </c>
       <c r="U21" t="n">
         <v>195.3010714541496</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>130.4390168243275</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2250,16 +2250,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>47.42478022488947</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6064588068799</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.4744994336728</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>19.24283350115086</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.59850352937</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>279.9171789780553</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>333.9338608104372</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>53.71178747009433</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098128</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.4564247663359</v>
+        <v>129.7847106354771</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
@@ -2535,16 +2535,16 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>43.75161849872837</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>87.53886068627229</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098128</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.66693883062831</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.5343322142292</v>
@@ -2733,7 +2733,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>199.6306298176837</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>237.4587719616844</v>
+        <v>287.3311941960156</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2955,7 +2955,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2967,10 +2967,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.9146185005497</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1728103134938</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>86.93486698677582</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>215.8208927368029</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3192,7 +3192,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3201,10 +3201,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>78.59846791722038</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>108.8907064997096</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>338.107329358846</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>220.8105735120307</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092304</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.80263759870758</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>275.3981407649204</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>303.7027961910381</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>109.7397551056364</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>189.5811355141598</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>245.4913546407948</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>373.6899802976328</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>53.76435970538583</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3875,7 +3875,7 @@
         <v>152.7312370348056</v>
       </c>
       <c r="U42" t="n">
-        <v>195.295411434229</v>
+        <v>195.2954114342289</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>93.35052185511361</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>166.3415337283568</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>122.43054079279</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>324.8378223519645</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>328.6422157026744</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>81.70027983572859</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4155,7 +4155,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>6.710352661917536</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.3614253460855</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="C11" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="D11" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="E11" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="F11" t="n">
-        <v>82.79084195586502</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="G11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="H11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="I11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J11" t="n">
         <v>8.518653200747849</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418869</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020689</v>
+        <v>77.70909531020682</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="T11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="U11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="V11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="W11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="X11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="Y11" t="n">
-        <v>227.0764382777617</v>
+        <v>303.7914512094377</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.79084195586502</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="C12" t="n">
-        <v>82.79084195586502</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="D12" t="n">
-        <v>82.79084195586502</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="E12" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="F12" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="G12" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="H12" t="n">
-        <v>6.07582902418876</v>
+        <v>7.560253176116561</v>
       </c>
       <c r="I12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194801</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L12" t="n">
-        <v>74.3397053712922</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956372</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S12" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="T12" t="n">
-        <v>227.0764382777617</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U12" t="n">
-        <v>227.0764382777617</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="V12" t="n">
-        <v>227.0764382777617</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="W12" t="n">
-        <v>227.0764382777617</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="X12" t="n">
-        <v>159.5058548875413</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="Y12" t="n">
-        <v>159.5058548875413</v>
+        <v>73.64641241440911</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="C13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="D13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="E13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="F13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="G13" t="n">
-        <v>6.07582902418876</v>
+        <v>82.79084195586493</v>
       </c>
       <c r="H13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="I13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J13" t="n">
-        <v>48.19497630457664</v>
+        <v>48.19497630457662</v>
       </c>
       <c r="K13" t="n">
-        <v>48.19497630457664</v>
+        <v>123.3833604789124</v>
       </c>
       <c r="L13" t="n">
-        <v>53.07021385812007</v>
+        <v>198.5717446532483</v>
       </c>
       <c r="M13" t="n">
-        <v>128.258598032456</v>
+        <v>273.7601288275841</v>
       </c>
       <c r="N13" t="n">
-        <v>203.4469822067919</v>
+        <v>303.2540349470355</v>
       </c>
       <c r="O13" t="n">
-        <v>278.6353663811278</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="P13" t="n">
-        <v>278.6353663811278</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R13" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S13" t="n">
-        <v>236.2208678192175</v>
+        <v>236.2208678192173</v>
       </c>
       <c r="T13" t="n">
-        <v>159.5058548875413</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="U13" t="n">
-        <v>82.79084195586502</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="V13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="W13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="X13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.07582902418876</v>
+        <v>159.5058548875411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="C14" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192173</v>
       </c>
       <c r="D14" t="n">
-        <v>303.791451209438</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="E14" t="n">
-        <v>287.7980326815135</v>
+        <v>82.79084195586493</v>
       </c>
       <c r="F14" t="n">
-        <v>211.0830197498372</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="G14" t="n">
-        <v>134.3680068181609</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648468</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="I14" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J14" t="n">
         <v>8.518653200747849</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418871</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020692</v>
+        <v>77.70909531020683</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655145</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="T14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="U14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="V14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="W14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="X14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="C15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="D15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="E15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="F15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="G15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="H15" t="n">
-        <v>6.07582902418876</v>
+        <v>7.560253176116561</v>
       </c>
       <c r="I15" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J15" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188472</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194802</v>
+        <v>27.18934645194773</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129218</v>
+        <v>74.33970537129191</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011797</v>
+        <v>137.2014819011794</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956371</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282918</v>
+        <v>262.9301139282916</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741907</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094379</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="T15" t="n">
-        <v>227.0764382777617</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="U15" t="n">
-        <v>159.5058548875413</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="V15" t="n">
-        <v>82.79084195586502</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="W15" t="n">
-        <v>82.79084195586502</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="X15" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="Y15" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460853</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="C16" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="D16" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="E16" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="F16" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440911</v>
       </c>
       <c r="G16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="H16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="I16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="J16" t="n">
-        <v>48.19497630457663</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="K16" t="n">
-        <v>48.19497630457663</v>
+        <v>6.075829024188754</v>
       </c>
       <c r="L16" t="n">
-        <v>53.07021385812004</v>
+        <v>77.68888242402801</v>
       </c>
       <c r="M16" t="n">
-        <v>128.258598032456</v>
+        <v>152.8772665983638</v>
       </c>
       <c r="N16" t="n">
-        <v>137.7471540765697</v>
+        <v>228.0656507726997</v>
       </c>
       <c r="O16" t="n">
-        <v>153.4146828607662</v>
+        <v>228.6030670351019</v>
       </c>
       <c r="P16" t="n">
-        <v>228.6030670351021</v>
+        <v>228.6030670351019</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="R16" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="S16" t="n">
-        <v>236.2208678192175</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="T16" t="n">
-        <v>159.5058548875413</v>
+        <v>303.7914512094377</v>
       </c>
       <c r="U16" t="n">
-        <v>82.79084195586502</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="V16" t="n">
-        <v>6.07582902418876</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="W16" t="n">
-        <v>6.07582902418876</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="X16" t="n">
-        <v>6.07582902418876</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.49823113843038</v>
+        <v>851.0688897863893</v>
       </c>
       <c r="C17" t="n">
-        <v>38.49823113843038</v>
+        <v>440.9442990996594</v>
       </c>
       <c r="D17" t="n">
-        <v>38.49823113843038</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="E17" t="n">
-        <v>38.49823113843038</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="F17" t="n">
-        <v>38.49823113843038</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="G17" t="n">
-        <v>38.49823113843038</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="H17" t="n">
-        <v>38.49823113843038</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="I17" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="J17" t="n">
-        <v>145.8573438546382</v>
+        <v>145.8573438546381</v>
       </c>
       <c r="K17" t="n">
-        <v>330.3341757067437</v>
+        <v>330.3341757067442</v>
       </c>
       <c r="L17" t="n">
-        <v>574.139211729075</v>
+        <v>574.1392117290754</v>
       </c>
       <c r="M17" t="n">
-        <v>858.2454126700151</v>
+        <v>858.245412670016</v>
       </c>
       <c r="N17" t="n">
-        <v>1148.817341359495</v>
+        <v>1148.817341359497</v>
       </c>
       <c r="O17" t="n">
-        <v>1417.795393165936</v>
+        <v>1417.795393165938</v>
       </c>
       <c r="P17" t="n">
-        <v>1633.389032007692</v>
+        <v>1633.389032007695</v>
       </c>
       <c r="Q17" t="n">
-        <v>1775.780913788805</v>
+        <v>1775.780913788808</v>
       </c>
       <c r="R17" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="S17" t="n">
-        <v>1738.585222133208</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="T17" t="n">
-        <v>1525.954554187379</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="U17" t="n">
-        <v>1269.069063083916</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="V17" t="n">
-        <v>919.2315084203972</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="W17" t="n">
-        <v>535.4712075555658</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="X17" t="n">
-        <v>134.8278097245183</v>
+        <v>1662.226742502789</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.49823113843038</v>
+        <v>1261.290069450879</v>
       </c>
     </row>
     <row r="18">
@@ -5573,58 +5573,58 @@
         <v>682.0884071335938</v>
       </c>
       <c r="C18" t="n">
-        <v>548.0933358825395</v>
+        <v>548.0933358825396</v>
       </c>
       <c r="D18" t="n">
-        <v>431.1961781019319</v>
+        <v>431.196178101932</v>
       </c>
       <c r="E18" t="n">
-        <v>310.7033620942599</v>
+        <v>310.70336209426</v>
       </c>
       <c r="F18" t="n">
-        <v>201.7434822767645</v>
+        <v>201.7434822767646</v>
       </c>
       <c r="G18" t="n">
-        <v>95.92378953555809</v>
+        <v>95.92378953555811</v>
       </c>
       <c r="H18" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="I18" t="n">
-        <v>55.64011080048624</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="J18" t="n">
-        <v>113.1630595842525</v>
+        <v>94.00331797648627</v>
       </c>
       <c r="K18" t="n">
-        <v>243.1316451897841</v>
+        <v>223.9719035820182</v>
       </c>
       <c r="L18" t="n">
-        <v>436.6510768239237</v>
+        <v>654.6983269872593</v>
       </c>
       <c r="M18" t="n">
-        <v>670.3186574288286</v>
+        <v>888.3659075921645</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.763226188737</v>
+        <v>1339.810476352073</v>
       </c>
       <c r="O18" t="n">
-        <v>1337.520334300576</v>
+        <v>1555.567584463913</v>
       </c>
       <c r="P18" t="n">
-        <v>1502.854543214453</v>
+        <v>1720.90179337779</v>
       </c>
       <c r="Q18" t="n">
-        <v>1811.206059006912</v>
+        <v>1811.206059006915</v>
       </c>
       <c r="R18" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="S18" t="n">
-        <v>1737.76848687647</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="T18" t="n">
-        <v>1737.76848687647</v>
+        <v>1669.394209546487</v>
       </c>
       <c r="U18" t="n">
         <v>1585.064076537095</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>522.6158789096631</v>
+        <v>1086.600270397128</v>
       </c>
       <c r="C19" t="n">
-        <v>522.6158789096631</v>
+        <v>915.5068979588441</v>
       </c>
       <c r="D19" t="n">
-        <v>522.6158789096631</v>
+        <v>756.0122532817541</v>
       </c>
       <c r="E19" t="n">
-        <v>522.6158789096631</v>
+        <v>595.1014381500736</v>
       </c>
       <c r="F19" t="n">
         <v>430.4703122606649</v>
       </c>
       <c r="G19" t="n">
-        <v>264.2011619506851</v>
+        <v>264.2011619506852</v>
       </c>
       <c r="H19" t="n">
         <v>123.3178291893995</v>
       </c>
       <c r="I19" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271992</v>
       </c>
       <c r="J19" t="n">
-        <v>118.5561035776771</v>
+        <v>118.5561035776773</v>
       </c>
       <c r="K19" t="n">
-        <v>384.8421209027392</v>
+        <v>384.8421209027396</v>
       </c>
       <c r="L19" t="n">
-        <v>787.7198753114842</v>
+        <v>787.7198753114847</v>
       </c>
       <c r="M19" t="n">
-        <v>973.8165367978456</v>
+        <v>1227.736984163676</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.823800967083</v>
+        <v>1536.447324234367</v>
       </c>
       <c r="O19" t="n">
-        <v>1482.243564703042</v>
+        <v>1616.867087970325</v>
       </c>
       <c r="P19" t="n">
-        <v>1804.233950686298</v>
+        <v>1677.959990480464</v>
       </c>
       <c r="Q19" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="R19" t="n">
-        <v>1782.865894230506</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="S19" t="n">
-        <v>1782.865894230506</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="T19" t="n">
-        <v>1547.5097293827</v>
+        <v>1824.018459635996</v>
       </c>
       <c r="U19" t="n">
-        <v>1264.765104152341</v>
+        <v>1541.273834405637</v>
       </c>
       <c r="V19" t="n">
-        <v>1264.765104152341</v>
+        <v>1267.388089345159</v>
       </c>
       <c r="W19" t="n">
-        <v>985.695439661215</v>
+        <v>1267.388089345159</v>
       </c>
       <c r="X19" t="n">
-        <v>747.3515775208984</v>
+        <v>1267.388089345159</v>
       </c>
       <c r="Y19" t="n">
-        <v>522.6158789096631</v>
+        <v>1267.388089345159</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>866.0694193290751</v>
+        <v>741.3441280694263</v>
       </c>
       <c r="C20" t="n">
-        <v>866.0694193290751</v>
+        <v>741.3441280694263</v>
       </c>
       <c r="D20" t="n">
-        <v>866.0694193290751</v>
+        <v>741.3441280694263</v>
       </c>
       <c r="E20" t="n">
-        <v>866.0694193290751</v>
+        <v>327.0039125863231</v>
       </c>
       <c r="F20" t="n">
-        <v>445.0390072827627</v>
+        <v>327.0039125863231</v>
       </c>
       <c r="G20" t="n">
-        <v>38.49823113843036</v>
+        <v>327.0039125863231</v>
       </c>
       <c r="H20" t="n">
-        <v>38.49823113843036</v>
+        <v>38.49823113843031</v>
       </c>
       <c r="I20" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="J20" t="n">
-        <v>145.857343854638</v>
+        <v>145.8573438546383</v>
       </c>
       <c r="K20" t="n">
-        <v>330.3341757067436</v>
+        <v>330.3341757067441</v>
       </c>
       <c r="L20" t="n">
-        <v>574.1392117290743</v>
+        <v>574.1392117290754</v>
       </c>
       <c r="M20" t="n">
-        <v>858.2454126700145</v>
+        <v>858.2454126700162</v>
       </c>
       <c r="N20" t="n">
-        <v>1148.817341359495</v>
+        <v>1148.817341359497</v>
       </c>
       <c r="O20" t="n">
-        <v>1417.795393165936</v>
+        <v>1417.795393165938</v>
       </c>
       <c r="P20" t="n">
-        <v>1633.389032007692</v>
+        <v>1633.389032007694</v>
       </c>
       <c r="Q20" t="n">
-        <v>1775.780913788805</v>
+        <v>1775.780913788807</v>
       </c>
       <c r="R20" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="S20" t="n">
-        <v>1824.018459635993</v>
+        <v>1738.585222133211</v>
       </c>
       <c r="T20" t="n">
-        <v>1824.018459635993</v>
+        <v>1731.82747470124</v>
       </c>
       <c r="U20" t="n">
-        <v>1824.018459635993</v>
+        <v>1474.941983597777</v>
       </c>
       <c r="V20" t="n">
-        <v>1824.018459635993</v>
+        <v>1125.104428934258</v>
       </c>
       <c r="W20" t="n">
-        <v>1824.018459635993</v>
+        <v>741.3441280694263</v>
       </c>
       <c r="X20" t="n">
-        <v>1423.375061804946</v>
+        <v>741.3441280694263</v>
       </c>
       <c r="Y20" t="n">
-        <v>1276.290598993565</v>
+        <v>741.3441280694263</v>
       </c>
     </row>
     <row r="21">
@@ -5810,67 +5810,67 @@
         <v>682.0884071335938</v>
       </c>
       <c r="C21" t="n">
-        <v>548.0933358825395</v>
+        <v>548.0933358825396</v>
       </c>
       <c r="D21" t="n">
-        <v>431.1961781019319</v>
+        <v>431.196178101932</v>
       </c>
       <c r="E21" t="n">
-        <v>310.7033620942599</v>
+        <v>310.70336209426</v>
       </c>
       <c r="F21" t="n">
-        <v>201.7434822767645</v>
+        <v>201.7434822767646</v>
       </c>
       <c r="G21" t="n">
-        <v>95.92378953555807</v>
+        <v>95.92378953555811</v>
       </c>
       <c r="H21" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="I21" t="n">
-        <v>36.48036919271986</v>
+        <v>55.64011080048634</v>
       </c>
       <c r="J21" t="n">
-        <v>337.6717219511194</v>
+        <v>113.1630595842527</v>
       </c>
       <c r="K21" t="n">
-        <v>666.935896758219</v>
+        <v>564.6076283441615</v>
       </c>
       <c r="L21" t="n">
-        <v>860.4553283923586</v>
+        <v>758.1270599783015</v>
       </c>
       <c r="M21" t="n">
-        <v>1094.122908997263</v>
+        <v>991.7946405832067</v>
       </c>
       <c r="N21" t="n">
-        <v>1339.810476352072</v>
+        <v>1237.482207938015</v>
       </c>
       <c r="O21" t="n">
-        <v>1555.56758446391</v>
+        <v>1453.239316049854</v>
       </c>
       <c r="P21" t="n">
-        <v>1720.901793377787</v>
+        <v>1618.573524963732</v>
       </c>
       <c r="Q21" t="n">
-        <v>1811.206059006912</v>
+        <v>1811.206059006915</v>
       </c>
       <c r="R21" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="S21" t="n">
-        <v>1737.76848687647</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="T21" t="n">
-        <v>1737.76848687647</v>
+        <v>1782.337886086741</v>
       </c>
       <c r="U21" t="n">
-        <v>1540.494677326824</v>
+        <v>1585.064076537095</v>
       </c>
       <c r="V21" t="n">
-        <v>1326.783150319858</v>
+        <v>1371.352549530129</v>
       </c>
       <c r="W21" t="n">
-        <v>1113.549982056186</v>
+        <v>1158.119381266458</v>
       </c>
       <c r="X21" t="n">
         <v>981.7933994053504</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.5688900677574</v>
+        <v>575.8830198487532</v>
       </c>
       <c r="C22" t="n">
-        <v>683.4755176294739</v>
+        <v>404.7896474104697</v>
       </c>
       <c r="D22" t="n">
-        <v>523.9808729523838</v>
+        <v>245.2950027333797</v>
       </c>
       <c r="E22" t="n">
-        <v>363.0700578207033</v>
+        <v>84.38418760169918</v>
       </c>
       <c r="F22" t="n">
-        <v>363.0700578207033</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="G22" t="n">
-        <v>196.8009075107236</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="H22" t="n">
-        <v>55.9175747494379</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="I22" t="n">
-        <v>36.48036919271986</v>
+        <v>36.48036919271991</v>
       </c>
       <c r="J22" t="n">
-        <v>118.5561035776771</v>
+        <v>118.5561035776773</v>
       </c>
       <c r="K22" t="n">
-        <v>384.8421209027393</v>
+        <v>384.8421209027396</v>
       </c>
       <c r="L22" t="n">
-        <v>787.7198753114844</v>
+        <v>787.7198753114847</v>
       </c>
       <c r="M22" t="n">
-        <v>1227.736984163676</v>
+        <v>973.8165367978472</v>
       </c>
       <c r="N22" t="n">
-        <v>1323.709946885328</v>
+        <v>1401.823800967085</v>
       </c>
       <c r="O22" t="n">
-        <v>1404.129710621286</v>
+        <v>1482.243564703044</v>
       </c>
       <c r="P22" t="n">
-        <v>1677.959990480461</v>
+        <v>1804.2339506863</v>
       </c>
       <c r="Q22" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="R22" t="n">
-        <v>1824.018459635993</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="S22" t="n">
-        <v>1654.727041929558</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="T22" t="n">
-        <v>1654.727041929558</v>
+        <v>1824.018459635995</v>
       </c>
       <c r="U22" t="n">
-        <v>1371.9824166992</v>
+        <v>1541.273834405637</v>
       </c>
       <c r="V22" t="n">
-        <v>1371.9824166992</v>
+        <v>1267.388089345159</v>
       </c>
       <c r="W22" t="n">
-        <v>1092.912752208074</v>
+        <v>988.3184248540329</v>
       </c>
       <c r="X22" t="n">
-        <v>854.5688900677574</v>
+        <v>988.3184248540329</v>
       </c>
       <c r="Y22" t="n">
-        <v>854.5688900677574</v>
+        <v>763.5827262427975</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1154.737524722578</v>
+        <v>1213.163994587037</v>
       </c>
       <c r="C23" t="n">
-        <v>1154.737524722578</v>
+        <v>1213.163994587037</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.737524722578</v>
+        <v>1213.163994587037</v>
       </c>
       <c r="E23" t="n">
-        <v>1154.737524722578</v>
+        <v>798.8237791039339</v>
       </c>
       <c r="F23" t="n">
-        <v>733.707112676266</v>
+        <v>377.7933670576215</v>
       </c>
       <c r="G23" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.6457459074655</v>
+        <v>44.64574590746534</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492897</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N23" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R23" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>1942.589711028802</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1888.335380250929</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1888.335380250929</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>1538.49782558741</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W23" t="n">
-        <v>1154.737524722578</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X23" t="n">
-        <v>1154.737524722578</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y23" t="n">
-        <v>1154.737524722578</v>
+        <v>1623.385174251527</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475244</v>
+        <v>43.01083102505508</v>
       </c>
       <c r="J24" t="n">
-        <v>251.3050691308922</v>
+        <v>208.7594707336911</v>
       </c>
       <c r="K24" t="n">
-        <v>752.3247263384924</v>
+        <v>352.4814632649827</v>
       </c>
       <c r="L24" t="n">
-        <v>964.3373108601496</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.585528619118</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N24" t="n">
-        <v>1487.424908378267</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132246</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.044918568429</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R24" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.5155919766107</v>
+        <v>888.2024318579665</v>
       </c>
       <c r="C25" t="n">
-        <v>188.4222195383272</v>
+        <v>888.2024318579665</v>
       </c>
       <c r="D25" t="n">
-        <v>40.48643694606871</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E25" t="n">
-        <v>40.48643694606871</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F25" t="n">
-        <v>40.48643694606871</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909253</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108422</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168145</v>
+        <v>750.6849613854783</v>
       </c>
       <c r="M25" t="n">
-        <v>921.9301938884096</v>
+        <v>1155.444313622741</v>
       </c>
       <c r="N25" t="n">
-        <v>1262.3442387512</v>
+        <v>1262.344238751202</v>
       </c>
       <c r="O25" t="n">
-        <v>1667.931580268702</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949587</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>2024.321847303435</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.300096062671</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T25" t="n">
-        <v>1621.255221375984</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U25" t="n">
-        <v>1338.514570062575</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.628825002097</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="W25" t="n">
-        <v>785.5591605109717</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="X25" t="n">
-        <v>547.2152983706551</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="Y25" t="n">
-        <v>547.2152983706551</v>
+        <v>1075.902138252011</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>489.1439208921278</v>
+        <v>1141.917275171819</v>
       </c>
       <c r="C26" t="n">
-        <v>489.1439208921278</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="D26" t="n">
-        <v>84.67999098518828</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E26" t="n">
-        <v>84.67999098518828</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F26" t="n">
-        <v>84.67999098518828</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G26" t="n">
-        <v>84.67999098518828</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492891</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752956</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879067</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501296</v>
       </c>
       <c r="N26" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576255</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256776</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397417</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463272</v>
       </c>
       <c r="R26" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1935.89875570114</v>
       </c>
       <c r="U26" t="n">
-        <v>2024.321847303436</v>
+        <v>1935.89875570114</v>
       </c>
       <c r="V26" t="n">
-        <v>1674.484292639916</v>
+        <v>1935.89875570114</v>
       </c>
       <c r="W26" t="n">
-        <v>1290.723991775085</v>
+        <v>1552.138454836309</v>
       </c>
       <c r="X26" t="n">
-        <v>890.0805939440377</v>
+        <v>1552.138454836309</v>
       </c>
       <c r="Y26" t="n">
-        <v>489.1439208921278</v>
+        <v>1552.138454836309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>62.57863487475244</v>
+        <v>43.01083102505503</v>
       </c>
       <c r="J27" t="n">
-        <v>371.816871914538</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K27" t="n">
-        <v>515.5388644458295</v>
+        <v>495.971060596132</v>
       </c>
       <c r="L27" t="n">
-        <v>727.5514489674867</v>
+        <v>707.9836451177893</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7996667264548</v>
+        <v>963.2318628767572</v>
       </c>
       <c r="N27" t="n">
-        <v>1250.639046485604</v>
+        <v>1231.071242635906</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.660735239583</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P27" t="n">
-        <v>1668.259056675766</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q27" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R27" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S27" t="n">
         <v>1939.686028373151</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.0636557753687</v>
+        <v>682.6428147380108</v>
       </c>
       <c r="C28" t="n">
-        <v>751.9702833370852</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="D28" t="n">
-        <v>592.4756386599952</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="E28" t="n">
-        <v>431.5648235283147</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F28" t="n">
-        <v>431.5648235283147</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444304</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909246</v>
       </c>
       <c r="K28" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108421</v>
       </c>
       <c r="L28" t="n">
-        <v>815.6863250168145</v>
+        <v>687.2745532080144</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884096</v>
+        <v>1138.484771593895</v>
       </c>
       <c r="N28" t="n">
-        <v>1136.070278545364</v>
+        <v>1577.418998169941</v>
       </c>
       <c r="O28" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P28" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q28" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S28" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T28" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.400239417419</v>
+        <v>1419.608120550041</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.514494356941</v>
+        <v>1145.722375489563</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.444829865815</v>
+        <v>1145.722375489563</v>
       </c>
       <c r="X28" t="n">
-        <v>960.1009677254983</v>
+        <v>907.3785133492461</v>
       </c>
       <c r="Y28" t="n">
-        <v>960.1009677254983</v>
+        <v>682.6428147380108</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1383.689048778839</v>
+        <v>1145.308487030663</v>
       </c>
       <c r="C29" t="n">
-        <v>973.5644580921088</v>
+        <v>735.183896343933</v>
       </c>
       <c r="D29" t="n">
-        <v>973.5644580921088</v>
+        <v>330.7199664369936</v>
       </c>
       <c r="E29" t="n">
-        <v>973.5644580921088</v>
+        <v>330.7199664369936</v>
       </c>
       <c r="F29" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G29" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746574</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879076</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
         <v>1568.017893256777</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="U29" t="n">
-        <v>1767.44934964367</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.44934964367</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="W29" t="n">
-        <v>1383.689048778839</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="X29" t="n">
-        <v>1383.689048778839</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="Y29" t="n">
-        <v>1383.689048778839</v>
+        <v>1555.529666695152</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521798</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505503</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>108.5806640902073</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>252.3026566214988</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177894</v>
+        <v>464.315241143156</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767574</v>
+        <v>719.5634589021239</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>987.4028386612731</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1223.424527415252</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1417.231939017938</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6581,13 +6581,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W30" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807658</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445958</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1087.694781664777</v>
+        <v>703.3180455713295</v>
       </c>
       <c r="C31" t="n">
-        <v>916.6014092264938</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="D31" t="n">
-        <v>757.1067645494038</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013655</v>
       </c>
       <c r="F31" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909246</v>
       </c>
       <c r="K31" t="n">
-        <v>402.1925459421785</v>
+        <v>303.6723642289237</v>
       </c>
       <c r="L31" t="n">
-        <v>815.6863250168145</v>
+        <v>717.1661433035597</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.896543402695</v>
+        <v>823.4100121751547</v>
       </c>
       <c r="N31" t="n">
-        <v>1373.796468531156</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O31" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P31" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>1871.882838717022</v>
       </c>
       <c r="T31" t="n">
-        <v>1986.445114104106</v>
+        <v>1636.837964030334</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.445114104106</v>
+        <v>1354.097312716926</v>
       </c>
       <c r="V31" t="n">
-        <v>1779.199851161183</v>
+        <v>1354.097312716926</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.130186670057</v>
+        <v>1354.097312716926</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.130186670057</v>
+        <v>1115.753450576609</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.394488058822</v>
+        <v>891.0177519653739</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1357.228169979181</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="C32" t="n">
-        <v>947.1035792924507</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D32" t="n">
-        <v>542.6396493855112</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E32" t="n">
-        <v>128.2994339024079</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F32" t="n">
-        <v>128.2994339024079</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G32" t="n">
-        <v>128.2994339024079</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746551</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576256</v>
@@ -6724,28 +6724,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U32" t="n">
-        <v>1767.44934964367</v>
+        <v>1512.669126325939</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.44934964367</v>
+        <v>1512.669126325939</v>
       </c>
       <c r="W32" t="n">
-        <v>1767.44934964367</v>
+        <v>1128.908825461107</v>
       </c>
       <c r="X32" t="n">
-        <v>1767.44934964367</v>
+        <v>728.2654276300598</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.44934964367</v>
+        <v>327.3287545781499</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505504</v>
       </c>
       <c r="J33" t="n">
         <v>352.2490680648406</v>
       </c>
       <c r="K33" t="n">
-        <v>752.3247263384928</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L33" t="n">
-        <v>964.3373108601501</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.585528619118</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N33" t="n">
-        <v>1487.424908378267</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132247</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.04491856843</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q33" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S33" t="n">
         <v>1939.686028373151</v>
@@ -6818,13 +6818,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.7104374069057</v>
+        <v>696.6163950825314</v>
       </c>
       <c r="C34" t="n">
-        <v>611.6170649686222</v>
+        <v>525.5230226442479</v>
       </c>
       <c r="D34" t="n">
-        <v>611.6170649686222</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E34" t="n">
-        <v>450.7062498369417</v>
+        <v>205.1175628354774</v>
       </c>
       <c r="F34" t="n">
-        <v>286.075123947533</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G34" t="n">
-        <v>119.8788287816449</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
         <v>40.48643694606871</v>
@@ -6858,52 +6858,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909249</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K34" t="n">
-        <v>130.910988725128</v>
+        <v>303.6723642289231</v>
       </c>
       <c r="L34" t="n">
-        <v>544.4047677997639</v>
+        <v>717.1661433035591</v>
       </c>
       <c r="M34" t="n">
-        <v>995.6149861856445</v>
+        <v>823.4100121751542</v>
       </c>
       <c r="N34" t="n">
-        <v>1434.549212761691</v>
+        <v>1262.3442387512</v>
       </c>
       <c r="O34" t="n">
-        <v>1840.136554279192</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P34" t="n">
         <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.445114104106</v>
+        <v>1914.331234677466</v>
       </c>
       <c r="T34" t="n">
-        <v>1986.445114104106</v>
+        <v>1679.286359990779</v>
       </c>
       <c r="U34" t="n">
-        <v>1986.445114104106</v>
+        <v>1396.54570867737</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.559369043628</v>
+        <v>1122.659963616892</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.489704552502</v>
+        <v>1122.659963616892</v>
       </c>
       <c r="X34" t="n">
-        <v>1195.145842412185</v>
+        <v>884.3161014765758</v>
       </c>
       <c r="Y34" t="n">
-        <v>970.4101438009501</v>
+        <v>884.3161014765758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1213.163994587036</v>
+        <v>677.8676357746575</v>
       </c>
       <c r="C35" t="n">
-        <v>803.0394039003064</v>
+        <v>677.8676357746575</v>
       </c>
       <c r="D35" t="n">
-        <v>803.0394039003064</v>
+        <v>677.8676357746575</v>
       </c>
       <c r="E35" t="n">
-        <v>461.5168489923811</v>
+        <v>263.5274202915542</v>
       </c>
       <c r="F35" t="n">
-        <v>40.48643694606871</v>
+        <v>263.5274202915542</v>
       </c>
       <c r="G35" t="n">
         <v>40.48643694606871</v>
@@ -6937,19 +6937,19 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K35" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L35" t="n">
         <v>641.1850750879073</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N35" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
         <v>1568.017893256777</v>
@@ -6961,28 +6961,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826567</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826567</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.385174251526</v>
+        <v>677.8676357746575</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521798</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505504</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902073</v>
+        <v>208.7594707336911</v>
       </c>
       <c r="K36" t="n">
-        <v>609.6003212978077</v>
+        <v>352.4814632649826</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6129058194649</v>
+        <v>564.4940477866398</v>
       </c>
       <c r="M36" t="n">
-        <v>1076.861123578433</v>
+        <v>819.7422655456079</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.700503337582</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O36" t="n">
-        <v>1580.722192091562</v>
+        <v>1323.603334058736</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.201655494919</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S36" t="n">
         <v>1939.686028373151</v>
@@ -7055,13 +7055,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W36" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807654</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445954</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>537.8465192928273</v>
+        <v>542.4072304396491</v>
       </c>
       <c r="C37" t="n">
-        <v>366.7531468545438</v>
+        <v>371.3138580013655</v>
       </c>
       <c r="D37" t="n">
-        <v>207.2585021774539</v>
+        <v>371.3138580013655</v>
       </c>
       <c r="E37" t="n">
-        <v>46.34768704577334</v>
+        <v>371.3138580013655</v>
       </c>
       <c r="F37" t="n">
-        <v>46.34768704577334</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G37" t="n">
-        <v>46.34768704577334</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H37" t="n">
-        <v>46.34768704577334</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I37" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>62.60916429909249</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K37" t="n">
-        <v>130.910988725128</v>
+        <v>272.6851259496606</v>
       </c>
       <c r="L37" t="n">
-        <v>544.4047677997639</v>
+        <v>372.1997937892736</v>
       </c>
       <c r="M37" t="n">
-        <v>995.6149861856445</v>
+        <v>823.4100121751542</v>
       </c>
       <c r="N37" t="n">
-        <v>1434.549212761691</v>
+        <v>1262.3442387512</v>
       </c>
       <c r="O37" t="n">
-        <v>1840.136554279192</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P37" t="n">
         <v>1998.558115949587</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="U37" t="n">
-        <v>1741.581195990027</v>
+        <v>1746.141907136849</v>
       </c>
       <c r="V37" t="n">
-        <v>1467.695450929549</v>
+        <v>1472.256162076371</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.625786438424</v>
+        <v>1193.186497585245</v>
       </c>
       <c r="X37" t="n">
-        <v>950.281924298107</v>
+        <v>954.8426354449288</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.5462256868717</v>
+        <v>730.1069368336935</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1273.547619588006</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="C38" t="n">
-        <v>1273.547619588006</v>
+        <v>1182.627565678553</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.547619588006</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E38" t="n">
-        <v>859.2074041049032</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F38" t="n">
-        <v>438.1769920585907</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
         <v>372.2593058752964</v>
@@ -7183,10 +7183,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V38" t="n">
-        <v>1674.484292639916</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="W38" t="n">
-        <v>1674.484292639916</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="X38" t="n">
-        <v>1674.484292639916</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="Y38" t="n">
-        <v>1273.547619588006</v>
+        <v>1592.752156365283</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.00330232539</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1487.424908378267</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
@@ -7295,10 +7295,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.694781664777</v>
+        <v>366.028377967158</v>
       </c>
       <c r="C40" t="n">
-        <v>916.6014092264938</v>
+        <v>366.028377967158</v>
       </c>
       <c r="D40" t="n">
-        <v>757.1067645494038</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E40" t="n">
-        <v>596.1959494177233</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1925459421785</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L40" t="n">
-        <v>506.8233170565552</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M40" t="n">
-        <v>958.0335354424358</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N40" t="n">
-        <v>1396.967762018482</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O40" t="n">
-        <v>1802.555103535984</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P40" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T40" t="n">
-        <v>1986.445114104106</v>
+        <v>1664.803999583722</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.445114104106</v>
+        <v>1382.063348270314</v>
       </c>
       <c r="V40" t="n">
-        <v>1986.445114104106</v>
+        <v>1108.177603209836</v>
       </c>
       <c r="W40" t="n">
-        <v>1738.474048810373</v>
+        <v>829.1079387187099</v>
       </c>
       <c r="X40" t="n">
-        <v>1500.130186670057</v>
+        <v>590.7640765783933</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.394488058822</v>
+        <v>366.028377967158</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1569.077740205682</v>
+        <v>838.9814755556466</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.077740205682</v>
+        <v>838.9814755556466</v>
       </c>
       <c r="D41" t="n">
-        <v>1569.077740205682</v>
+        <v>838.9814755556466</v>
       </c>
       <c r="E41" t="n">
-        <v>1154.737524722578</v>
+        <v>838.9814755556466</v>
       </c>
       <c r="F41" t="n">
-        <v>733.707112676266</v>
+        <v>417.9510635093342</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H41" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J41" t="n">
         <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L41" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7435,28 +7435,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.321847303436</v>
+        <v>1640.561546438604</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.014413257592</v>
+        <v>1239.918148607557</v>
       </c>
       <c r="Y41" t="n">
-        <v>1569.077740205682</v>
+        <v>838.9814755556466</v>
       </c>
     </row>
     <row r="42">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.5798093843522</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="C43" t="n">
         <v>40.48643694606871</v>
@@ -7569,52 +7569,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L43" t="n">
-        <v>815.6863250168145</v>
+        <v>372.1997937892736</v>
       </c>
       <c r="M43" t="n">
-        <v>1266.896543402695</v>
+        <v>823.4100121751542</v>
       </c>
       <c r="N43" t="n">
-        <v>1373.796468531156</v>
+        <v>1262.3442387512</v>
       </c>
       <c r="O43" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002097</v>
       </c>
       <c r="W43" t="n">
-        <v>747.682427311642</v>
+        <v>785.5591605109717</v>
       </c>
       <c r="X43" t="n">
-        <v>624.0152143896319</v>
+        <v>547.2152983706551</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.2795157783966</v>
+        <v>322.4795997594198</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1692.360013260331</v>
+        <v>1614.100667638946</v>
       </c>
       <c r="C44" t="n">
-        <v>1282.235422573601</v>
+        <v>1203.976076952216</v>
       </c>
       <c r="D44" t="n">
-        <v>1282.235422573601</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E44" t="n">
-        <v>867.8952070904973</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F44" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I44" t="n">
-        <v>44.6457459074652</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492893</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752958</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879071</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
         <v>1568.017893256777</v>
@@ -7669,7 +7669,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
@@ -7687,13 +7687,13 @@
         <v>2024.321847303436</v>
       </c>
       <c r="W44" t="n">
-        <v>1692.360013260331</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X44" t="n">
-        <v>1692.360013260331</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y44" t="n">
-        <v>1692.360013260331</v>
+        <v>2024.321847303436</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C45" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692776</v>
+        <v>99.0905735269273</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I45" t="n">
         <v>43.01083102505505</v>
       </c>
       <c r="J45" t="n">
-        <v>208.7594707336915</v>
+        <v>108.5806640902073</v>
       </c>
       <c r="K45" t="n">
-        <v>352.481463264983</v>
+        <v>609.6003212978077</v>
       </c>
       <c r="L45" t="n">
-        <v>564.4940477866403</v>
+        <v>821.6129058194649</v>
       </c>
       <c r="M45" t="n">
-        <v>819.7422655456083</v>
+        <v>1076.861123578433</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.581645304758</v>
+        <v>1344.700503337582</v>
       </c>
       <c r="O45" t="n">
-        <v>1323.603334058737</v>
+        <v>1580.722192091562</v>
       </c>
       <c r="P45" t="n">
-        <v>1505.20165549492</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q45" t="n">
         <v>2006.22131270252</v>
@@ -7757,7 +7757,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U45" t="n">
         <v>1588.14395921251</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1087.694781664777</v>
+        <v>926.079165057296</v>
       </c>
       <c r="C46" t="n">
-        <v>916.6014092264938</v>
+        <v>754.9857926190125</v>
       </c>
       <c r="D46" t="n">
-        <v>757.1067645494038</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E46" t="n">
-        <v>596.1959494177233</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421785</v>
+        <v>303.6723642289236</v>
       </c>
       <c r="L46" t="n">
-        <v>815.6863250168145</v>
+        <v>717.1661433035596</v>
       </c>
       <c r="M46" t="n">
-        <v>958.033535442436</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N46" t="n">
-        <v>1396.967762018482</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O46" t="n">
-        <v>1802.555103535984</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U46" t="n">
-        <v>2024.321847303436</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>2017.543713301499</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W46" t="n">
-        <v>1738.474048810373</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="X46" t="n">
-        <v>1500.130186670057</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.394488058822</v>
+        <v>1113.77887145134</v>
       </c>
     </row>
   </sheetData>
@@ -8455,13 +8455,13 @@
         <v>34.81979492599199</v>
       </c>
       <c r="K8" t="n">
-        <v>31.42917993820345</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L8" t="n">
         <v>23.89450156601852</v>
       </c>
       <c r="M8" t="n">
-        <v>13.63155801534685</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N8" t="n">
         <v>11.96466381132231</v>
@@ -8537,7 +8537,7 @@
         <v>16.63032124124894</v>
       </c>
       <c r="L9" t="n">
-        <v>3.411388745407635</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7.908981644977501</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.70843422154194</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R9" t="n">
         <v>43.92968946019</v>
@@ -8616,7 +8616,7 @@
         <v>28.6078221063498</v>
       </c>
       <c r="L10" t="n">
-        <v>24.37397299861712</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M10" t="n">
         <v>24.3660030835062</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174886</v>
+        <v>31.21809620174888</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226683</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.33532272952761</v>
+        <v>29.33532272952762</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>5.712245507081562</v>
+        <v>81.660108309441</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>71.02338042504286</v>
       </c>
       <c r="M13" t="n">
-        <v>69.42275263851184</v>
+        <v>69.4227526385118</v>
       </c>
       <c r="N13" t="n">
-        <v>66.36346275780016</v>
+        <v>20.20742431852294</v>
       </c>
       <c r="O13" t="n">
-        <v>75.40501809286229</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173047</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.22803311865974</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174887</v>
+        <v>31.21809620174886</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226675</v>
+        <v>6.228584518226668</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081576</v>
+        <v>5.712245507081569</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>67.41193519827861</v>
       </c>
       <c r="M16" t="n">
-        <v>69.42275263851187</v>
+        <v>69.42275263851178</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>66.36346275780011</v>
       </c>
       <c r="O16" t="n">
-        <v>15.28294194120634</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>83.28144447453252</v>
+        <v>7.333581672173032</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7657092257564</v>
+        <v>103.7657092257563</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>0.4121840827585572</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>239.6030219910113</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>207.8353549546467</v>
+        <v>207.8353549546471</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.2497476397324</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>91.9655577257131</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>214.8862397465034</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4121840827585999</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>201.3086759611797</v>
+        <v>324.7232153074515</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.3618872869272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>91.96555772571406</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>214.8862397465012</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>124.4006072636237</v>
+        <v>101.1907137812966</v>
       </c>
       <c r="K24" t="n">
-        <v>360.9067319962714</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>403.8820839126367</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9804,10 +9804,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>301.5307912784521</v>
       </c>
       <c r="N25" t="n">
-        <v>235.8728482164952</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>239.1776382754177</v>
+        <v>258.9430967094553</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>253.0997000581407</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>108.3233934631249</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>12.33241430959893</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.9430967094555</v>
+        <v>403.8820839126364</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>174.506439902824</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>78.12986811408976</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>258.9430967094553</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>258.943096709455</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>174.5064399028234</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>89.58839339659417</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1907137812967</v>
       </c>
       <c r="K36" t="n">
-        <v>360.9067319962716</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>144.1660656976619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126364</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>143.2061992166996</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>89.58839339659417</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>10.68911746841258</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>89.58839339659421</v>
       </c>
       <c r="L40" t="n">
-        <v>5.167781085619893</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>143.2061992166996</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>78.12986811408976</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1907137812971</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>360.9067319962716</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>144.1660656976619</v>
       </c>
       <c r="Q45" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>174.5064399028238</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>36.46802177174388</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>330.1711050654851</v>
       </c>
       <c r="C11" t="n">
-        <v>339.1284672235443</v>
+        <v>330.0754819775032</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234898</v>
       </c>
       <c r="G11" t="n">
-        <v>327.8001522282804</v>
+        <v>336.8531374743218</v>
       </c>
       <c r="H11" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.95213950687126</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -23345,7 +23345,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>43.34002504523579</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -23354,10 +23354,10 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H12" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.090887922119286</v>
+        <v>2.621308011710761</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725511</v>
       </c>
       <c r="T12" t="n">
-        <v>79.87475435686012</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U12" t="n">
         <v>195.3458692164555</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X12" t="n">
-        <v>107.6678444861779</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23430,10 +23430,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.1773242806354</v>
+        <v>89.22946147827602</v>
       </c>
       <c r="H13" t="n">
-        <v>144.5500124639718</v>
+        <v>68.60214966161237</v>
       </c>
       <c r="I13" t="n">
         <v>103.1365670983785</v>
@@ -23469,13 +23469,13 @@
         <v>110.6522542747728</v>
       </c>
       <c r="T13" t="n">
-        <v>159.4938928757419</v>
+        <v>159.493892875742</v>
       </c>
       <c r="U13" t="n">
-        <v>204.0004542924461</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V13" t="n">
-        <v>195.1990248075138</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23497,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>339.1284672235444</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>324.4714278055106</v>
       </c>
       <c r="E14" t="n">
-        <v>394.363328985627</v>
+        <v>334.2489505259128</v>
       </c>
       <c r="F14" t="n">
         <v>340.8722451234898</v>
       </c>
       <c r="G14" t="n">
-        <v>327.8001522282804</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H14" t="n">
-        <v>222.706254312334</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>56.70725773618425</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -23585,16 +23585,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696103</v>
       </c>
       <c r="G15" t="n">
         <v>105.4424218008434</v>
       </c>
       <c r="H15" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.09088792211929</v>
+        <v>2.621308011710758</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T15" t="n">
-        <v>79.87475435686012</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U15" t="n">
-        <v>128.4509916601372</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V15" t="n">
-        <v>135.626548934537</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>98.6148592401367</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>93.43457591154123</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23667,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.1773242806354</v>
+        <v>98.2824467243173</v>
       </c>
       <c r="H16" t="n">
         <v>144.5500124639718</v>
@@ -23703,16 +23703,16 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>110.6522542747728</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T16" t="n">
-        <v>159.4938928757419</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U16" t="n">
-        <v>204.0004542924461</v>
+        <v>204.0004542924462</v>
       </c>
       <c r="V16" t="n">
-        <v>195.1990248075138</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>146.5404788227635</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23749,10 +23749,10 @@
         <v>402.475368382889</v>
       </c>
       <c r="H17" t="n">
-        <v>285.6206246334139</v>
+        <v>285.6206246334138</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.997683326253295</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.57890512775685</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5043612663704</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3166361924284</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>236.4631638908617</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.5610235211637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.38747303192758</v>
       </c>
       <c r="T18" t="n">
-        <v>153.0780075886141</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.12370521816834</v>
+        <v>111.8142397748517</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>6.842768571552909</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.76070364800636</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.74103975143252</v>
       </c>
       <c r="S19" t="n">
         <v>167.59850352937</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0026031993279</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,16 +23977,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.475368382889</v>
       </c>
       <c r="H20" t="n">
-        <v>285.6206246334139</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.5789051277569</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5043612663704</v>
+        <v>203.8141913087196</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3166361924284</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3136881381237</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.38747303192758</v>
       </c>
       <c r="T21" t="n">
-        <v>153.0780075886141</v>
+        <v>111.8142397748523</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>44.12370521816862</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>115.5600344056252</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6064588068799</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.4744994336728</v>
       </c>
       <c r="I22" t="n">
-        <v>66.72625189556194</v>
+        <v>85.96908539671277</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.74103975143257</v>
+        <v>40.74103975143252</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.59850352937</v>
       </c>
       <c r="T22" t="n">
         <v>233.0026031993279</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>68.38071370669773</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T23" t="n">
-        <v>156.0886986489378</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>11.44327346398313</v>
+        <v>28.11498759484198</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>240.222275957032</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188681</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>122.2616254327598</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.1557704994756</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733682</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>80.28261498259064</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>179.3613359641649</v>
+        <v>129.4889137298337</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188681</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733682</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>15.4269152278071</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>65.97407729637942</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24934,7 +24934,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>197.0390274689845</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>38.48287994636519</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23476053815773</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
         <v>83.80004204681616</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>57.45082722864713</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>72.08948396942623</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>181.5040010051042</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25207,16 +25207,16 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
-        <v>77.99740444810858</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4.515104035354028</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>96.71649441683189</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>292.5748194114985</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>43.11329042566044</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>30.78761320541952</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>28.6245942195021</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>342.8726041473511</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>76.03191685878704</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>113.5298827261235</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>75.58146825590552</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25927,7 +25927,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>51.28048215350873</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>76.19941839459048</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>264.4365349479557</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>203272.521609696</v>
+        <v>203272.5216096959</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>518112.6018751195</v>
+        <v>518112.60187512</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>518112.6018751194</v>
+        <v>518112.60187512</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>559212.9417973465</v>
+        <v>559212.9417973466</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559212.9417973466</v>
+        <v>559212.9417973465</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>559212.9417973466</v>
+        <v>559212.9417973465</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>559212.9417973467</v>
+        <v>559212.9417973468</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>40299.50563686364</v>
       </c>
       <c r="D2" t="n">
-        <v>40401.95765684349</v>
+        <v>40401.9576568435</v>
       </c>
       <c r="E2" t="n">
         <v>59164.2681590478</v>
@@ -26328,25 +26328,25 @@
         <v>59164.26815904779</v>
       </c>
       <c r="G2" t="n">
-        <v>149460.4667545837</v>
+        <v>149460.466754584</v>
       </c>
       <c r="H2" t="n">
-        <v>149460.4667545837</v>
+        <v>149460.466754584</v>
       </c>
       <c r="I2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
       <c r="J2" t="n">
         <v>161192.7346476189</v>
       </c>
       <c r="K2" t="n">
+        <v>161192.7346476188</v>
+      </c>
+      <c r="L2" t="n">
         <v>161192.7346476189</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>161192.734647619</v>
-      </c>
-      <c r="M2" t="n">
-        <v>161192.7346476189</v>
       </c>
       <c r="N2" t="n">
         <v>161192.7346476189</v>
@@ -26355,7 +26355,7 @@
         <v>161192.7346476189</v>
       </c>
       <c r="P2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>350297.5781758641</v>
+        <v>350297.5781758649</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43424.27792403415</v>
+        <v>43424.27792403381</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.5112017992</v>
+        <v>18926.51120179918</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91461.03745121472</v>
+        <v>91461.03745121491</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>10027.81985033872</v>
       </c>
       <c r="D4" t="n">
-        <v>8977.296762381626</v>
+        <v>8977.296762381628</v>
       </c>
       <c r="E4" t="n">
         <v>3658.974877211257</v>
       </c>
       <c r="F4" t="n">
-        <v>3658.974877211258</v>
+        <v>3658.974877211257</v>
       </c>
       <c r="G4" t="n">
-        <v>14078.95167113398</v>
+        <v>14078.95167113399</v>
       </c>
       <c r="H4" t="n">
-        <v>14078.95167113397</v>
+        <v>14078.95167113399</v>
       </c>
       <c r="I4" t="n">
-        <v>15626.31080089388</v>
+        <v>15626.31080089389</v>
       </c>
       <c r="J4" t="n">
         <v>15626.31080089389</v>
@@ -26447,10 +26447,10 @@
         <v>15626.31080089389</v>
       </c>
       <c r="L4" t="n">
-        <v>15626.31080089389</v>
+        <v>15626.31080089388</v>
       </c>
       <c r="M4" t="n">
-        <v>15626.31080089389</v>
+        <v>15626.31080089388</v>
       </c>
       <c r="N4" t="n">
         <v>15626.31080089389</v>
@@ -26478,37 +26478,37 @@
         <v>36087.68291100337</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703485</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703488</v>
+        <v>9460.071166703485</v>
       </c>
       <c r="G5" t="n">
-        <v>39468.76630387874</v>
+        <v>39468.76630387879</v>
       </c>
       <c r="H5" t="n">
-        <v>39468.76630387874</v>
+        <v>39468.76630387879</v>
       </c>
       <c r="I5" t="n">
+        <v>43385.32273194158</v>
+      </c>
+      <c r="J5" t="n">
         <v>43385.32273194156</v>
       </c>
-      <c r="J5" t="n">
-        <v>43385.32273194157</v>
-      </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="N5" t="n">
         <v>43385.32273194157</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="P5" t="n">
         <v>43385.32273194157</v>
@@ -26530,22 +26530,22 @@
         <v>-10850.87093406085</v>
       </c>
       <c r="E6" t="n">
-        <v>-64429.01605727518</v>
+        <v>-64429.01605727511</v>
       </c>
       <c r="F6" t="n">
         <v>46045.22211513305</v>
       </c>
       <c r="G6" t="n">
-        <v>-254384.8293962931</v>
+        <v>-254384.8293962937</v>
       </c>
       <c r="H6" t="n">
-        <v>95912.748779571</v>
+        <v>95912.74877957122</v>
       </c>
       <c r="I6" t="n">
-        <v>58756.82319074929</v>
+        <v>58756.82319074968</v>
       </c>
       <c r="J6" t="n">
-        <v>102181.1011147835</v>
+        <v>102181.1011147837</v>
       </c>
       <c r="K6" t="n">
         <v>102181.1011147834</v>
@@ -26554,16 +26554,16 @@
         <v>102181.1011147835</v>
       </c>
       <c r="M6" t="n">
-        <v>83254.58991298424</v>
+        <v>83254.58991298435</v>
       </c>
       <c r="N6" t="n">
         <v>102181.1011147835</v>
       </c>
       <c r="O6" t="n">
-        <v>10720.06366356875</v>
+        <v>10720.06366356854</v>
       </c>
       <c r="P6" t="n">
-        <v>102181.1011147834</v>
+        <v>102181.1011147835</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>112.8478399542832</v>
       </c>
       <c r="E3" t="n">
+        <v>222.1303260697262</v>
+      </c>
+      <c r="F3" t="n">
         <v>222.1303260697263</v>
       </c>
-      <c r="F3" t="n">
-        <v>222.1303260697262</v>
-      </c>
       <c r="G3" t="n">
-        <v>538.7011796977818</v>
+        <v>538.7011796977824</v>
       </c>
       <c r="H3" t="n">
-        <v>538.7011796977819</v>
+        <v>538.7011796977824</v>
       </c>
       <c r="I3" t="n">
-        <v>578.6986538040984</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="J3" t="n">
-        <v>578.6986538040984</v>
+        <v>578.6986538040983</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6986538040984</v>
+        <v>578.6986538040983</v>
       </c>
       <c r="L3" t="n">
         <v>578.6986538040984</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="F4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="G4" t="n">
-        <v>456.0046149089982</v>
+        <v>456.004614908999</v>
       </c>
       <c r="H4" t="n">
-        <v>456.0046149089982</v>
+        <v>456.0046149089989</v>
       </c>
       <c r="I4" t="n">
+        <v>506.0804618258591</v>
+      </c>
+      <c r="J4" t="n">
         <v>506.0804618258588</v>
       </c>
-      <c r="J4" t="n">
-        <v>506.0804618258589</v>
-      </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="O4" t="n">
+        <v>506.0804618258588</v>
+      </c>
+      <c r="P4" t="n">
         <v>506.0804618258589</v>
-      </c>
-      <c r="P4" t="n">
-        <v>506.080461825859</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>7.225300984709904</v>
       </c>
       <c r="E3" t="n">
-        <v>109.2824861154431</v>
+        <v>109.282486115443</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>316.5708536280555</v>
+        <v>316.5708536280562</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.99747410631653</v>
+        <v>39.99747410631619</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0567521066387</v>
+        <v>380.0567521066396</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0758469168606</v>
+        <v>50.07584691686026</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0567521066387</v>
+        <v>380.0567521066395</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0567521066387</v>
+        <v>380.0567521066396</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>0.4536596581076707</v>
       </c>
       <c r="H8" t="n">
-        <v>4.646041973595184</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I8" t="n">
         <v>17.48971396919599</v>
@@ -31527,13 +31527,13 @@
         <v>38.50379640731595</v>
       </c>
       <c r="K8" t="n">
-        <v>57.70720973501367</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L8" t="n">
         <v>71.5908964968263</v>
       </c>
       <c r="M8" t="n">
-        <v>79.6586664416986</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N8" t="n">
         <v>80.94762694529702</v>
@@ -31554,7 +31554,7 @@
         <v>10.33776945912856</v>
       </c>
       <c r="T8" t="n">
-        <v>1.985895153366329</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U8" t="n">
         <v>0.03629277264861365</v>
@@ -31609,7 +31609,7 @@
         <v>39.19546154336646</v>
       </c>
       <c r="L9" t="n">
-        <v>52.70313506544142</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -31621,10 +31621,10 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>46.35065335782625</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.98418428329678</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R9" t="n">
         <v>15.07050964521541</v>
@@ -31636,7 +31636,7 @@
         <v>0.9783694803583604</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561851</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865657</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K11" t="n">
         <v>113.5911978484098</v>
@@ -31776,25 +31776,25 @@
         <v>159.3377664580359</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709452</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649479</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612979</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I12" t="n">
         <v>16.45021754384294</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177333</v>
       </c>
       <c r="K12" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518029</v>
       </c>
       <c r="L12" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M12" t="n">
         <v>121.0610277080008</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O12" t="n">
         <v>113.6783377198532</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946925</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993691</v>
       </c>
       <c r="R12" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219715</v>
       </c>
       <c r="T12" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765554</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626104</v>
       </c>
       <c r="I13" t="n">
         <v>12.0460183383386</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L13" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121808</v>
       </c>
       <c r="M13" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262767</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297874</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249351</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773173</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797786</v>
       </c>
       <c r="T13" t="n">
         <v>1.711495954963464</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561852</v>
+        <v>0.8929862354561853</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865659</v>
+        <v>9.145295283865661</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242461</v>
+        <v>34.42685184242462</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154946</v>
+        <v>75.79109050154948</v>
       </c>
       <c r="K14" t="n">
         <v>113.5911978484098</v>
@@ -32013,16 +32013,16 @@
         <v>159.3377664580359</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792184</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913938</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411918</v>
+        <v>96.4324673341192</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297464</v>
+        <v>56.09404661297465</v>
       </c>
       <c r="S14" t="n">
         <v>20.34892384045784</v>
@@ -32071,7 +32071,7 @@
         <v>0.477789757961298</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731483</v>
+        <v>4.614443188731484</v>
       </c>
       <c r="I15" t="n">
         <v>16.45021754384294</v>
@@ -32095,19 +32095,19 @@
         <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946927</v>
+        <v>91.23688807946928</v>
       </c>
       <c r="Q15" t="n">
         <v>60.98944348993692</v>
       </c>
       <c r="R15" t="n">
-        <v>29.66487637587779</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219717</v>
+        <v>8.874735197219719</v>
       </c>
       <c r="T15" t="n">
-        <v>1.925828015642248</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U15" t="n">
         <v>0.03143353670798014</v>
@@ -32159,31 +32159,31 @@
         <v>28.31979583351247</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198525</v>
+        <v>46.53812405198526</v>
       </c>
       <c r="L16" t="n">
         <v>59.55277627121809</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262768</v>
+        <v>62.79005266262769</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297875</v>
+        <v>61.29704555297876</v>
       </c>
       <c r="O16" t="n">
         <v>56.61774278249352</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773174</v>
+        <v>48.44625996773175</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652866</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542402</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797787</v>
+        <v>6.980718607797788</v>
       </c>
       <c r="T16" t="n">
         <v>1.711495954963464</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.165632883207161</v>
+        <v>2.165632883207164</v>
       </c>
       <c r="H17" t="n">
-        <v>22.17878776514534</v>
+        <v>22.17878776514537</v>
       </c>
       <c r="I17" t="n">
-        <v>83.49056172984416</v>
+        <v>83.49056172984427</v>
       </c>
       <c r="J17" t="n">
-        <v>183.805383921104</v>
+        <v>183.8053839211042</v>
       </c>
       <c r="K17" t="n">
-        <v>275.4766238672631</v>
+        <v>275.4766238672635</v>
       </c>
       <c r="L17" t="n">
-        <v>341.7531112167144</v>
+        <v>341.7531112167148</v>
       </c>
       <c r="M17" t="n">
-        <v>380.2661850034497</v>
+        <v>380.2661850034502</v>
       </c>
       <c r="N17" t="n">
-        <v>386.4192894328621</v>
+        <v>386.4192894328626</v>
       </c>
       <c r="O17" t="n">
-        <v>364.8847774504709</v>
+        <v>364.8847774504713</v>
       </c>
       <c r="P17" t="n">
-        <v>311.420715646294</v>
+        <v>311.4207156462944</v>
       </c>
       <c r="Q17" t="n">
-        <v>233.8639880164375</v>
+        <v>233.8639880164378</v>
       </c>
       <c r="R17" t="n">
-        <v>136.036936599762</v>
+        <v>136.0369365997621</v>
       </c>
       <c r="S17" t="n">
-        <v>49.34935932608324</v>
+        <v>49.3493593260833</v>
       </c>
       <c r="T17" t="n">
-        <v>9.480057946239352</v>
+        <v>9.480057946239365</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1732506306565729</v>
+        <v>0.1732506306565731</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.158715745010323</v>
+        <v>1.158715745010324</v>
       </c>
       <c r="H18" t="n">
-        <v>11.19075469523128</v>
+        <v>11.19075469523129</v>
       </c>
       <c r="I18" t="n">
-        <v>39.89437981724139</v>
+        <v>39.89437981724144</v>
       </c>
       <c r="J18" t="n">
-        <v>109.4732274704709</v>
+        <v>109.4732274704711</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1071823861626</v>
+        <v>187.1071823861628</v>
       </c>
       <c r="L18" t="n">
-        <v>251.5886971786669</v>
+        <v>251.5886971786672</v>
       </c>
       <c r="M18" t="n">
-        <v>293.592142935291</v>
+        <v>293.5921429352914</v>
       </c>
       <c r="N18" t="n">
-        <v>301.3626533481015</v>
+        <v>301.3626533481019</v>
       </c>
       <c r="O18" t="n">
-        <v>275.6879518402412</v>
+        <v>275.6879518402416</v>
       </c>
       <c r="P18" t="n">
-        <v>221.2638864309625</v>
+        <v>221.2638864309628</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.9090484332476</v>
+        <v>147.9090484332478</v>
       </c>
       <c r="R18" t="n">
-        <v>71.94201792265851</v>
+        <v>71.94201792265859</v>
       </c>
       <c r="S18" t="n">
-        <v>21.52263675490664</v>
+        <v>21.52263675490667</v>
       </c>
       <c r="T18" t="n">
-        <v>4.670437586247748</v>
+        <v>4.670437586247754</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07623129901383707</v>
+        <v>0.07623129901383717</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9714283568320653</v>
+        <v>0.9714283568320665</v>
       </c>
       <c r="H19" t="n">
-        <v>8.636881208925097</v>
+        <v>8.636881208925107</v>
       </c>
       <c r="I19" t="n">
-        <v>29.2135000400043</v>
+        <v>29.21350004000434</v>
       </c>
       <c r="J19" t="n">
-        <v>68.67998482802702</v>
+        <v>68.6799848280271</v>
       </c>
       <c r="K19" t="n">
-        <v>112.8623127301254</v>
+        <v>112.8623127301255</v>
       </c>
       <c r="L19" t="n">
-        <v>144.4249031602873</v>
+        <v>144.4249031602874</v>
       </c>
       <c r="M19" t="n">
-        <v>152.2758105168664</v>
+        <v>152.2758105168666</v>
       </c>
       <c r="N19" t="n">
-        <v>148.655032095947</v>
+        <v>148.6550320959472</v>
       </c>
       <c r="O19" t="n">
-        <v>137.3069826547724</v>
+        <v>137.3069826547725</v>
       </c>
       <c r="P19" t="n">
-        <v>117.4898441753981</v>
+        <v>117.4898441753983</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.34387813436504</v>
+        <v>81.34387813436514</v>
       </c>
       <c r="R19" t="n">
-        <v>43.67895138992176</v>
+        <v>43.67895138992182</v>
       </c>
       <c r="S19" t="n">
-        <v>16.92934690951881</v>
+        <v>16.92934690951883</v>
       </c>
       <c r="T19" t="n">
-        <v>4.150648433737006</v>
+        <v>4.150648433737011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05298700128174908</v>
+        <v>0.05298700128174915</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.165632883207162</v>
+        <v>2.165632883207164</v>
       </c>
       <c r="H20" t="n">
-        <v>22.17878776514535</v>
+        <v>22.17878776514537</v>
       </c>
       <c r="I20" t="n">
-        <v>83.49056172984417</v>
+        <v>83.49056172984427</v>
       </c>
       <c r="J20" t="n">
-        <v>183.805383921104</v>
+        <v>183.8053839211042</v>
       </c>
       <c r="K20" t="n">
-        <v>275.4766238672632</v>
+        <v>275.4766238672635</v>
       </c>
       <c r="L20" t="n">
-        <v>341.7531112167144</v>
+        <v>341.7531112167148</v>
       </c>
       <c r="M20" t="n">
-        <v>380.2661850034498</v>
+        <v>380.2661850034502</v>
       </c>
       <c r="N20" t="n">
-        <v>386.4192894328622</v>
+        <v>386.4192894328626</v>
       </c>
       <c r="O20" t="n">
-        <v>364.8847774504709</v>
+        <v>364.8847774504713</v>
       </c>
       <c r="P20" t="n">
-        <v>311.4207156462941</v>
+        <v>311.4207156462944</v>
       </c>
       <c r="Q20" t="n">
-        <v>233.8639880164375</v>
+        <v>233.8639880164378</v>
       </c>
       <c r="R20" t="n">
-        <v>136.036936599762</v>
+        <v>136.0369365997621</v>
       </c>
       <c r="S20" t="n">
-        <v>49.34935932608325</v>
+        <v>49.3493593260833</v>
       </c>
       <c r="T20" t="n">
-        <v>9.480057946239356</v>
+        <v>9.480057946239365</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1732506306565729</v>
+        <v>0.1732506306565731</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.158715745010323</v>
+        <v>1.158715745010324</v>
       </c>
       <c r="H21" t="n">
-        <v>11.19075469523128</v>
+        <v>11.19075469523129</v>
       </c>
       <c r="I21" t="n">
-        <v>39.8943798172414</v>
+        <v>39.89437981724144</v>
       </c>
       <c r="J21" t="n">
-        <v>109.473227470471</v>
+        <v>109.4732274704711</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1071823861626</v>
+        <v>187.1071823861628</v>
       </c>
       <c r="L21" t="n">
-        <v>251.5886971786669</v>
+        <v>251.5886971786672</v>
       </c>
       <c r="M21" t="n">
-        <v>293.5921429352911</v>
+        <v>293.5921429352914</v>
       </c>
       <c r="N21" t="n">
-        <v>301.3626533481016</v>
+        <v>301.3626533481019</v>
       </c>
       <c r="O21" t="n">
-        <v>275.6879518402412</v>
+        <v>275.6879518402416</v>
       </c>
       <c r="P21" t="n">
-        <v>221.2638864309625</v>
+        <v>221.2638864309628</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.9090484332476</v>
+        <v>147.9090484332478</v>
       </c>
       <c r="R21" t="n">
-        <v>71.94201792265852</v>
+        <v>71.94201792265859</v>
       </c>
       <c r="S21" t="n">
-        <v>21.52263675490665</v>
+        <v>21.52263675490667</v>
       </c>
       <c r="T21" t="n">
-        <v>4.670437586247749</v>
+        <v>4.670437586247754</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07623129901383709</v>
+        <v>0.07623129901383717</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9714283568320655</v>
+        <v>0.9714283568320665</v>
       </c>
       <c r="H22" t="n">
-        <v>8.636881208925098</v>
+        <v>8.636881208925107</v>
       </c>
       <c r="I22" t="n">
-        <v>29.21350004000431</v>
+        <v>29.21350004000434</v>
       </c>
       <c r="J22" t="n">
-        <v>68.67998482802703</v>
+        <v>68.6799848280271</v>
       </c>
       <c r="K22" t="n">
-        <v>112.8623127301254</v>
+        <v>112.8623127301255</v>
       </c>
       <c r="L22" t="n">
-        <v>144.4249031602873</v>
+        <v>144.4249031602874</v>
       </c>
       <c r="M22" t="n">
-        <v>152.2758105168664</v>
+        <v>152.2758105168666</v>
       </c>
       <c r="N22" t="n">
-        <v>148.655032095947</v>
+        <v>148.6550320959472</v>
       </c>
       <c r="O22" t="n">
-        <v>137.3069826547724</v>
+        <v>137.3069826547725</v>
       </c>
       <c r="P22" t="n">
-        <v>117.4898441753981</v>
+        <v>117.4898441753983</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.34387813436506</v>
+        <v>81.34387813436514</v>
       </c>
       <c r="R22" t="n">
-        <v>43.67895138992177</v>
+        <v>43.67895138992182</v>
       </c>
       <c r="S22" t="n">
-        <v>16.92934690951881</v>
+        <v>16.92934690951883</v>
       </c>
       <c r="T22" t="n">
-        <v>4.150648433737007</v>
+        <v>4.150648433737011</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05298700128174909</v>
+        <v>0.05298700128174915</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H23" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I23" t="n">
-        <v>89.68956723932666</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J23" t="n">
-        <v>197.4525622846456</v>
+        <v>197.4525622846457</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9302065681732</v>
+        <v>295.9302065681733</v>
       </c>
       <c r="L23" t="n">
-        <v>367.1275891866945</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M23" t="n">
-        <v>408.5001808835332</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N23" t="n">
-        <v>415.1101408840192</v>
+        <v>415.1101408840194</v>
       </c>
       <c r="O23" t="n">
-        <v>391.9767348990363</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P23" t="n">
-        <v>334.5430745340567</v>
+        <v>334.5430745340568</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.2279165868837</v>
+        <v>251.2279165868838</v>
       </c>
       <c r="R23" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S23" t="n">
-        <v>53.01344954195335</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T23" t="n">
         <v>10.18393309357765</v>
@@ -32782,10 +32782,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H24" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I24" t="n">
-        <v>42.8564569090771</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J24" t="n">
         <v>117.601393411265</v>
@@ -32794,34 +32794,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L24" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M24" t="n">
-        <v>315.3907663232336</v>
+        <v>315.3907663232337</v>
       </c>
       <c r="N24" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O24" t="n">
-        <v>296.1572252161408</v>
+        <v>296.1572252161409</v>
       </c>
       <c r="P24" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.8909964180611</v>
+        <v>158.8909964180612</v>
       </c>
       <c r="R24" t="n">
-        <v>77.28356738915868</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S24" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T24" t="n">
-        <v>5.017208140056285</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08189131893454227</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H25" t="n">
-        <v>9.278152187219813</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I25" t="n">
-        <v>31.38254338990095</v>
+        <v>31.38254338990096</v>
       </c>
       <c r="J25" t="n">
-        <v>73.77933492843398</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K25" t="n">
-        <v>121.2421114035471</v>
+        <v>121.2421114035472</v>
       </c>
       <c r="L25" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M25" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N25" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O25" t="n">
-        <v>147.5017486778053</v>
+        <v>147.5017486778054</v>
       </c>
       <c r="P25" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.38349672441886</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R25" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S25" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T25" t="n">
-        <v>4.458825693244691</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961197</v>
       </c>
       <c r="H26" t="n">
-        <v>23.82551794279888</v>
+        <v>23.82551794279887</v>
       </c>
       <c r="I26" t="n">
-        <v>89.68956723932666</v>
+        <v>89.68956723932665</v>
       </c>
       <c r="J26" t="n">
         <v>197.4525622846456</v>
@@ -32955,7 +32955,7 @@
         <v>367.1275891866945</v>
       </c>
       <c r="M26" t="n">
-        <v>408.5001808835332</v>
+        <v>408.5001808835331</v>
       </c>
       <c r="N26" t="n">
         <v>415.1101408840192</v>
@@ -32964,16 +32964,16 @@
         <v>391.9767348990363</v>
       </c>
       <c r="P26" t="n">
-        <v>334.5430745340567</v>
+        <v>334.5430745340566</v>
       </c>
       <c r="Q26" t="n">
         <v>251.2279165868837</v>
       </c>
       <c r="R26" t="n">
-        <v>146.137404269434</v>
+        <v>146.1374042694339</v>
       </c>
       <c r="S26" t="n">
-        <v>53.01344954195335</v>
+        <v>53.01344954195334</v>
       </c>
       <c r="T26" t="n">
         <v>10.18393309357765</v>
@@ -33025,40 +33025,40 @@
         <v>42.8564569090771</v>
       </c>
       <c r="J27" t="n">
-        <v>117.601393411265</v>
+        <v>117.6013934112649</v>
       </c>
       <c r="K27" t="n">
-        <v>200.9995126142028</v>
+        <v>200.9995126142027</v>
       </c>
       <c r="L27" t="n">
-        <v>270.2686495903009</v>
+        <v>270.2686495903008</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3907663232336</v>
+        <v>315.3907663232335</v>
       </c>
       <c r="N27" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332946</v>
       </c>
       <c r="O27" t="n">
         <v>296.1572252161408</v>
       </c>
       <c r="P27" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181399</v>
       </c>
       <c r="Q27" t="n">
         <v>158.8909964180611</v>
       </c>
       <c r="R27" t="n">
-        <v>77.28356738915868</v>
+        <v>77.28356738915866</v>
       </c>
       <c r="S27" t="n">
-        <v>23.12064904585241</v>
+        <v>23.1206490458524</v>
       </c>
       <c r="T27" t="n">
-        <v>5.017208140056285</v>
+        <v>5.017208140056284</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08189131893454227</v>
+        <v>0.08189131893454224</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,13 +33098,13 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H28" t="n">
-        <v>9.278152187219813</v>
+        <v>9.278152187219812</v>
       </c>
       <c r="I28" t="n">
-        <v>31.38254338990095</v>
+        <v>31.38254338990094</v>
       </c>
       <c r="J28" t="n">
-        <v>73.77933492843398</v>
+        <v>73.77933492843395</v>
       </c>
       <c r="K28" t="n">
         <v>121.2421114035471</v>
@@ -33113,7 +33113,7 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M28" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630174</v>
       </c>
       <c r="N28" t="n">
         <v>159.6923678603999</v>
@@ -33125,19 +33125,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.38349672441886</v>
+        <v>87.38349672441883</v>
       </c>
       <c r="R28" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401753</v>
       </c>
       <c r="S28" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053206</v>
       </c>
       <c r="T28" t="n">
-        <v>4.458825693244691</v>
+        <v>4.45882569324469</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269825</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961197</v>
       </c>
       <c r="H29" t="n">
-        <v>23.82551794279888</v>
+        <v>23.82551794279887</v>
       </c>
       <c r="I29" t="n">
-        <v>89.68956723932666</v>
+        <v>89.68956723932665</v>
       </c>
       <c r="J29" t="n">
         <v>197.4525622846456</v>
@@ -33192,7 +33192,7 @@
         <v>367.1275891866945</v>
       </c>
       <c r="M29" t="n">
-        <v>408.5001808835332</v>
+        <v>408.5001808835331</v>
       </c>
       <c r="N29" t="n">
         <v>415.1101408840192</v>
@@ -33201,16 +33201,16 @@
         <v>391.9767348990363</v>
       </c>
       <c r="P29" t="n">
-        <v>334.5430745340567</v>
+        <v>334.5430745340566</v>
       </c>
       <c r="Q29" t="n">
         <v>251.2279165868837</v>
       </c>
       <c r="R29" t="n">
-        <v>146.137404269434</v>
+        <v>146.1374042694339</v>
       </c>
       <c r="S29" t="n">
-        <v>53.01344954195335</v>
+        <v>53.01344954195334</v>
       </c>
       <c r="T29" t="n">
         <v>10.18393309357765</v>
@@ -33262,40 +33262,40 @@
         <v>42.8564569090771</v>
       </c>
       <c r="J30" t="n">
-        <v>117.601393411265</v>
+        <v>117.6013934112649</v>
       </c>
       <c r="K30" t="n">
-        <v>200.9995126142028</v>
+        <v>200.9995126142027</v>
       </c>
       <c r="L30" t="n">
-        <v>270.2686495903009</v>
+        <v>270.2686495903008</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3907663232336</v>
+        <v>315.3907663232335</v>
       </c>
       <c r="N30" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332946</v>
       </c>
       <c r="O30" t="n">
         <v>296.1572252161408</v>
       </c>
       <c r="P30" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181399</v>
       </c>
       <c r="Q30" t="n">
         <v>158.8909964180611</v>
       </c>
       <c r="R30" t="n">
-        <v>77.28356738915868</v>
+        <v>77.28356738915866</v>
       </c>
       <c r="S30" t="n">
-        <v>23.12064904585241</v>
+        <v>23.1206490458524</v>
       </c>
       <c r="T30" t="n">
-        <v>5.017208140056285</v>
+        <v>5.017208140056284</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08189131893454227</v>
+        <v>0.08189131893454224</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H31" t="n">
-        <v>9.278152187219813</v>
+        <v>9.278152187219812</v>
       </c>
       <c r="I31" t="n">
-        <v>31.38254338990095</v>
+        <v>31.38254338990094</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77933492843398</v>
+        <v>73.77933492843395</v>
       </c>
       <c r="K31" t="n">
         <v>121.2421114035471</v>
@@ -33350,7 +33350,7 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M31" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630174</v>
       </c>
       <c r="N31" t="n">
         <v>159.6923678603999</v>
@@ -33362,19 +33362,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.38349672441886</v>
+        <v>87.38349672441883</v>
       </c>
       <c r="R31" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401753</v>
       </c>
       <c r="S31" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053206</v>
       </c>
       <c r="T31" t="n">
-        <v>4.458825693244691</v>
+        <v>4.45882569324469</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269825</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519267</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950051</v>
       </c>
       <c r="N11" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141654</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343528</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056493</v>
+        <v>21.3267852805649</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105474</v>
+        <v>47.6266251710547</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958334</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985319</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666551</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098191</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.54459321251301</v>
+        <v>42.54459321251299</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316593</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="M13" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="N13" t="n">
-        <v>75.9478628023595</v>
+        <v>29.79182436308225</v>
       </c>
       <c r="O13" t="n">
-        <v>75.9478628023595</v>
+        <v>0.5428447094971816</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.41018669526284</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241517</v>
+        <v>2.467499168241531</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519268</v>
+        <v>24.4548081751927</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890723</v>
+        <v>45.43452728890726</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950053</v>
+        <v>63.51034485950056</v>
       </c>
       <c r="N14" t="n">
         <v>66.42547570141657</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343531</v>
+        <v>57.26835895343534</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050968</v>
+        <v>34.76317361050971</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.398662934967135</v>
+        <v>6.398662934967149</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>21.32678528056491</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105471</v>
+        <v>47.62662517105473</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958336</v>
+        <v>63.49674396958337</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935091</v>
+        <v>71.07175948935094</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985321</v>
+        <v>55.92685871985322</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666552</v>
+        <v>36.97725307666553</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098198</v>
+        <v>4.296824985098205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.54459321251299</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316579</v>
+        <v>72.33641757559521</v>
       </c>
       <c r="M16" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="N16" t="n">
-        <v>9.58440004455931</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="O16" t="n">
-        <v>15.82578665070353</v>
+        <v>0.5428447094971958</v>
       </c>
       <c r="P16" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235942</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>110.481792587796</v>
+        <v>110.4817925877963</v>
       </c>
       <c r="K17" t="n">
-        <v>186.340234194046</v>
+        <v>186.3402341940464</v>
       </c>
       <c r="L17" t="n">
-        <v>246.2677131538696</v>
+        <v>246.26771315387</v>
       </c>
       <c r="M17" t="n">
-        <v>286.9759605464043</v>
+        <v>286.9759605464047</v>
       </c>
       <c r="N17" t="n">
-        <v>293.5069986762428</v>
+        <v>293.5069986762433</v>
       </c>
       <c r="O17" t="n">
-        <v>271.6950018246878</v>
+        <v>271.6950018246882</v>
       </c>
       <c r="P17" t="n">
-        <v>217.7713523654099</v>
+        <v>217.7713523654103</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.8301836172855</v>
+        <v>143.8301836172857</v>
       </c>
       <c r="R17" t="n">
-        <v>48.72479378503844</v>
+        <v>48.72479378503861</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.35327435127917</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>58.10398867047092</v>
+        <v>58.10398867047106</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2813996015472</v>
+        <v>131.2813996015474</v>
       </c>
       <c r="L18" t="n">
-        <v>195.4741733678178</v>
+        <v>435.0771953588294</v>
       </c>
       <c r="M18" t="n">
-        <v>236.0278591968736</v>
+        <v>236.027859196874</v>
       </c>
       <c r="N18" t="n">
-        <v>456.0046149089982</v>
+        <v>456.004614908999</v>
       </c>
       <c r="O18" t="n">
-        <v>217.9364728402412</v>
+        <v>217.9364728402416</v>
       </c>
       <c r="P18" t="n">
-        <v>167.0042514281587</v>
+        <v>167.004251428159</v>
       </c>
       <c r="Q18" t="n">
-        <v>311.4661775681413</v>
+        <v>91.21642992840904</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9418188172531</v>
+        <v>12.94181881725319</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>82.90478220702755</v>
+        <v>82.90478220702764</v>
       </c>
       <c r="K19" t="n">
-        <v>268.9757750758203</v>
+        <v>268.9757750758205</v>
       </c>
       <c r="L19" t="n">
-        <v>406.9472266755</v>
+        <v>406.9472266755001</v>
       </c>
       <c r="M19" t="n">
-        <v>187.9764257437994</v>
+        <v>444.4617261133244</v>
       </c>
       <c r="N19" t="n">
-        <v>432.3305698679169</v>
+        <v>311.8286263340311</v>
       </c>
       <c r="O19" t="n">
-        <v>81.23208458177604</v>
+        <v>81.23208458177621</v>
       </c>
       <c r="P19" t="n">
-        <v>325.2428141245015</v>
+        <v>61.71000253549348</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.98435247443948</v>
+        <v>147.5338072278104</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.4817925877961</v>
+        <v>110.4817925877963</v>
       </c>
       <c r="K20" t="n">
-        <v>186.340234194046</v>
+        <v>186.3402341940464</v>
       </c>
       <c r="L20" t="n">
-        <v>246.2677131538696</v>
+        <v>246.26771315387</v>
       </c>
       <c r="M20" t="n">
-        <v>286.9759605464043</v>
+        <v>286.9759605464047</v>
       </c>
       <c r="N20" t="n">
-        <v>293.5069986762429</v>
+        <v>293.5069986762433</v>
       </c>
       <c r="O20" t="n">
-        <v>271.6950018246878</v>
+        <v>271.6950018246882</v>
       </c>
       <c r="P20" t="n">
-        <v>217.7713523654099</v>
+        <v>217.7713523654103</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.8301836172855</v>
+        <v>143.8301836172857</v>
       </c>
       <c r="R20" t="n">
-        <v>48.72479378503847</v>
+        <v>48.72479378503861</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.35327435127922</v>
       </c>
       <c r="J21" t="n">
-        <v>304.233689654949</v>
+        <v>58.10398867047106</v>
       </c>
       <c r="K21" t="n">
-        <v>332.5900755627269</v>
+        <v>456.0046149089989</v>
       </c>
       <c r="L21" t="n">
-        <v>195.4741733678179</v>
+        <v>195.4741733678181</v>
       </c>
       <c r="M21" t="n">
-        <v>236.0278591968736</v>
+        <v>236.027859196874</v>
       </c>
       <c r="N21" t="n">
-        <v>248.1692599543516</v>
+        <v>248.1692599543519</v>
       </c>
       <c r="O21" t="n">
-        <v>217.9364728402412</v>
+        <v>217.9364728402416</v>
       </c>
       <c r="P21" t="n">
-        <v>167.0042514281588</v>
+        <v>167.004251428159</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.21642992840887</v>
+        <v>194.5783172153363</v>
       </c>
       <c r="R21" t="n">
-        <v>12.94181881725311</v>
+        <v>12.94181881725319</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>82.90478220702755</v>
+        <v>82.90478220702764</v>
       </c>
       <c r="K22" t="n">
-        <v>268.9757750758204</v>
+        <v>268.9757750758205</v>
       </c>
       <c r="L22" t="n">
-        <v>406.9472266755</v>
+        <v>406.9472266755001</v>
       </c>
       <c r="M22" t="n">
-        <v>444.4617261133243</v>
+        <v>187.9764257438006</v>
       </c>
       <c r="N22" t="n">
-        <v>96.94238658752757</v>
+        <v>432.3305698679171</v>
       </c>
       <c r="O22" t="n">
-        <v>81.23208458177606</v>
+        <v>81.23208458177621</v>
       </c>
       <c r="P22" t="n">
-        <v>276.5962422819946</v>
+        <v>325.2428141245016</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5338072278103</v>
+        <v>19.98435247443958</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.201322183229095</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J23" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K23" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L23" t="n">
-        <v>271.6421911238497</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M23" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1978501273999</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O23" t="n">
-        <v>298.7869592732532</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8937112531725</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R23" t="n">
-        <v>58.82526145471046</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J24" t="n">
-        <v>190.6327618748886</v>
+        <v>167.4228683925616</v>
       </c>
       <c r="K24" t="n">
-        <v>506.0804618258588</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L24" t="n">
-        <v>214.1541257794518</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N24" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O24" t="n">
-        <v>238.4057462161408</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P24" t="n">
-        <v>183.4326479153362</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375327</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K25" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M25" t="n">
-        <v>107.3170392642374</v>
+        <v>408.8478305426896</v>
       </c>
       <c r="N25" t="n">
-        <v>343.8525705684756</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O25" t="n">
-        <v>409.6841833510115</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.0239710644933</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.201322183229095</v>
+        <v>4.201322183229081</v>
       </c>
       <c r="J26" t="n">
         <v>124.1289709513377</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7938168949561</v>
+        <v>206.793816894956</v>
       </c>
       <c r="L26" t="n">
         <v>271.6421911238497</v>
       </c>
       <c r="M26" t="n">
-        <v>315.2099564264878</v>
+        <v>315.2099564264877</v>
       </c>
       <c r="N26" t="n">
         <v>322.1978501273999</v>
@@ -36615,10 +36615,10 @@
         <v>240.8937112531725</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877316</v>
       </c>
       <c r="R26" t="n">
-        <v>58.82526145471046</v>
+        <v>58.82526145471043</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077095</v>
       </c>
       <c r="J27" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
-        <v>145.1737298295874</v>
+        <v>145.1737298295873</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848161</v>
       </c>
       <c r="N27" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395446</v>
       </c>
       <c r="O27" t="n">
         <v>238.4057462161408</v>
@@ -36694,10 +36694,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>341.3760161886401</v>
+        <v>361.1414746226777</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375327</v>
+        <v>18.28336828375325</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547853</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>277.355573749242</v>
       </c>
       <c r="L28" t="n">
-        <v>417.6704839137738</v>
+        <v>353.6195665628003</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>216.3031158151053</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>409.6841833510115</v>
+        <v>91.42685060480898</v>
       </c>
       <c r="P28" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.5734258178641</v>
+        <v>26.02397106449327</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.201322183229095</v>
+        <v>4.201322183229081</v>
       </c>
       <c r="J29" t="n">
         <v>124.1289709513377</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7938168949561</v>
+        <v>206.793816894956</v>
       </c>
       <c r="L29" t="n">
         <v>271.6421911238497</v>
       </c>
       <c r="M29" t="n">
-        <v>315.2099564264878</v>
+        <v>315.2099564264877</v>
       </c>
       <c r="N29" t="n">
         <v>322.1978501273999</v>
@@ -36852,10 +36852,10 @@
         <v>240.8937112531725</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877316</v>
       </c>
       <c r="R29" t="n">
-        <v>58.82526145471046</v>
+        <v>58.82526145471043</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>2.549893009077095</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126492</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1737298295874</v>
+        <v>145.1737298295873</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848161</v>
       </c>
       <c r="N30" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395446</v>
       </c>
       <c r="O30" t="n">
         <v>238.4057462161408</v>
       </c>
       <c r="P30" t="n">
-        <v>183.4326479153362</v>
+        <v>195.7650622249351</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.1414746226779</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547853</v>
       </c>
       <c r="K31" t="n">
-        <v>277.3555737492421</v>
+        <v>243.4981817473043</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N31" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
-        <v>169.5567187188988</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.5734258178641</v>
+        <v>26.02397106449327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>404.1168265390426</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794518</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132224</v>
+        <v>361.1414746226774</v>
       </c>
       <c r="R33" t="n">
         <v>18.28336828375327</v>
@@ -37229,13 +37229,13 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K34" t="n">
-        <v>68.9917418444803</v>
+        <v>243.4981817473037</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
@@ -37244,7 +37244,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q34" t="n">
         <v>26.0239710644933</v>
@@ -37384,10 +37384,10 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126495</v>
+        <v>167.4228683925616</v>
       </c>
       <c r="K36" t="n">
-        <v>506.0804618258589</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794518</v>
@@ -37402,10 +37402,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P36" t="n">
-        <v>327.5987136129982</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="R36" t="n">
         <v>18.28336828375327</v>
@@ -37466,10 +37466,10 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>68.9917418444803</v>
+        <v>212.19794106118</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M37" t="n">
         <v>455.7678973594753</v>
@@ -37481,7 +37481,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q37" t="n">
         <v>26.0239710644933</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
         <v>312.361855595743</v>
@@ -37630,10 +37630,10 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M39" t="n">
-        <v>506.0804618258589</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>281.2339455079572</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
         <v>238.4057462161408</v>
@@ -37642,10 +37642,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K40" t="n">
-        <v>277.3555737492421</v>
+        <v>158.5801352410745</v>
       </c>
       <c r="L40" t="n">
-        <v>105.6876475902795</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37721,7 +37721,7 @@
         <v>70.43338606845131</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>417.6704839137738</v>
+        <v>243.7260657213592</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>169.5567187188988</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J45" t="n">
-        <v>167.4228683925621</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38113,10 +38113,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153362</v>
+        <v>327.5987136129982</v>
       </c>
       <c r="Q45" t="n">
-        <v>506.080461825859</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R45" t="n">
         <v>18.28336828375327</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K46" t="n">
-        <v>277.3555737492421</v>
+        <v>243.4981817473041</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>143.7850610359813</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N46" t="n">
         <v>443.3679056323699</v>
@@ -38192,10 +38192,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
